--- a/logs/2024/In This Economy_ How Money & Markets Really Work -  Kyla Scanlon.xlsx
+++ b/logs/2024/In This Economy_ How Money & Markets Really Work -  Kyla Scanlon.xlsx
@@ -430,7 +430,7 @@
         <v>45502</v>
       </c>
       <c r="B1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45504</v>
       </c>
       <c r="B2" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45542</v>
       </c>
       <c r="B3" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45549</v>
       </c>
       <c r="B4" t="n">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45553</v>
       </c>
       <c r="B5" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45559</v>
       </c>
       <c r="B6" t="n">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45564</v>
       </c>
       <c r="B7" t="n">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
